--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2367109.256890948</v>
+        <v>-2369762.53842141</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>101.9340460106499</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>196.5501500659886</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>63.69001051091573</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>196.1914072494688</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>70.01505925776725</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>146.4041139327189</v>
       </c>
     </row>
     <row r="6">
@@ -1054,16 +1054,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>70.93341719265796</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>98.20224746043293</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>153.5988982317297</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>331.9916838480436</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>19.49905836424267</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,10 +1348,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>168.3346747233654</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>14.76058440587408</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>142.3575218158273</v>
       </c>
       <c r="E16" t="n">
-        <v>121.8000472740347</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.0347892581641</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C25" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652589</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y25" t="n">
         <v>194.3000058600551</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,10 +2713,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
@@ -2725,13 +2725,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545299</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,7 +2965,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541848</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
         <v>56.98118882652579</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652588</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652586</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808201</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>420.2093035084148</v>
+        <v>1277.379137212821</v>
       </c>
       <c r="C2" t="n">
-        <v>51.2467865680031</v>
+        <v>1277.379137212821</v>
       </c>
       <c r="D2" t="n">
-        <v>51.2467865680031</v>
+        <v>919.1134386060701</v>
       </c>
       <c r="E2" t="n">
-        <v>51.2467865680031</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="F2" t="n">
-        <v>51.2467865680031</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.012626270159</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926588</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W2" t="n">
-        <v>1570.414233809428</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X2" t="n">
-        <v>1196.948475548348</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y2" t="n">
-        <v>806.8091435725366</v>
+        <v>1380.342820051861</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.2332512597245</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="C4" t="n">
-        <v>219.2332512597245</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="D4" t="n">
-        <v>219.2332512597245</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4513,25 +4513,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288652</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="V4" t="n">
-        <v>957.4325513382325</v>
+        <v>793.4311400478913</v>
       </c>
       <c r="W4" t="n">
-        <v>668.015381301272</v>
+        <v>504.0139700109307</v>
       </c>
       <c r="X4" t="n">
-        <v>440.0258304032546</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.2332512597245</v>
+        <v>305.8408313751036</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.138951213862</v>
+        <v>1495.089731832625</v>
       </c>
       <c r="C5" t="n">
-        <v>1661.138951213862</v>
+        <v>1126.127214892214</v>
       </c>
       <c r="D5" t="n">
-        <v>1302.873252607111</v>
+        <v>767.8615162854633</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
@@ -4601,16 +4601,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189673</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213862</v>
+        <v>1881.689571896747</v>
       </c>
     </row>
     <row r="6">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>528.3452334219998</v>
+        <v>718.3439163053883</v>
       </c>
       <c r="C7" t="n">
-        <v>528.3452334219998</v>
+        <v>549.4077333774815</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219998</v>
+        <v>549.4077333774815</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>549.4077333774815</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1326.59460854119</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W7" t="n">
-        <v>1037.177438504229</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="X7" t="n">
-        <v>809.1878876062121</v>
+        <v>1120.784960279158</v>
       </c>
       <c r="Y7" t="n">
-        <v>709.9936982522395</v>
+        <v>899.9923811356281</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2089.358425227294</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1269.91250533737</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267228</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.097597267228</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2866.097597267228</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X8" t="n">
-        <v>2866.097597267228</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>2475.958265291416</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362.8459426266613</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C10" t="n">
-        <v>362.8459426266613</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143256</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
         <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1907.598529538753</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1907.598529538753</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1685.831914108279</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610488</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="V10" t="n">
-        <v>1054.704156637392</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="W10" t="n">
-        <v>765.2869866004312</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="X10" t="n">
-        <v>765.2869866004312</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y10" t="n">
-        <v>544.4944074569011</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5030,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1552.432392194325</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2104.342122433612</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2527.96527192868</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038327</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797728</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1962.551399292452</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1707.866911086565</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1418.449741049605</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1190.460190151587</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1092.345997432834</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>923.4098145049275</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5513,25 +5513,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5595,25 +5595,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5656,16 +5656,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5938,19 +5938,19 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y22" t="n">
         <v>761.7140495035743</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,34 +6124,34 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C25" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6239,37 +6239,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,16 +6297,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6315,16 +6315,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C28" t="n">
         <v>782.5512955656818</v>
@@ -6370,7 +6370,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
@@ -6379,16 +6379,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,16 +6406,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594055</v>
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075813</v>
@@ -6540,25 +6540,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6780,22 +6780,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6838,10 +6838,10 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580113</v>
@@ -6862,10 +6862,10 @@
         <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
@@ -6880,7 +6880,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6895,7 +6895,7 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
         <v>1280.338681582389</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656823</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7217,7 +7217,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656811</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O40" t="n">
         <v>2179.340199382518</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2978.493192213311</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>2834.086956247061</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>2708.500263796381</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>2585.117117175644</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>2462.75711663939</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>2320.090964315926</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>2202.909080119781</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>2145.35232372935</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>2249.630143176793</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>2535.361206719451</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>2949.801601912511</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
-        <v>3395.853105660664</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>3837.304778337792</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>4230.875860063896</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>4547.593116654574</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
-        <v>4648.317395612652</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>4489.992508229213</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>4294.92099021381</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>4030.375710519665</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>3800.221169275434</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>3535.33394620013</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>3331.874342263769</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>3135.611710081895</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
@@ -7801,37 +7801,37 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>193.3273467878353</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>30.36925650589518</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>280.7997956528307</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>340.5389251356802</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>152.6908186514244</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22708,13 +22708,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>106.3633624975747</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,13 +22762,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>188.4476328129123</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>29.51824813956833</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>271.4238899833701</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>6.257951202385101</v>
       </c>
       <c r="E16" t="n">
-        <v>24.63391537253447</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>119.4047645948081</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-5.562217481057792e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1381298.378948195</v>
+        <v>1381298.378948196</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1381298.378948195</v>
+        <v>1381298.378948196</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31766.15265272275</v>
+        <v>31766.15265272276</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="D2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
+        <v>40357.32998450031</v>
+      </c>
+      <c r="F2" t="n">
+        <v>40357.32998450032</v>
+      </c>
+      <c r="G2" t="n">
         <v>40357.32998450029</v>
       </c>
-      <c r="F2" t="n">
-        <v>40357.32998450031</v>
-      </c>
-      <c r="G2" t="n">
-        <v>40357.3299845003</v>
-      </c>
       <c r="H2" t="n">
-        <v>40357.3299845003</v>
+        <v>40357.32998450029</v>
       </c>
       <c r="I2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="K2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="M2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="O2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.0884932142</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605452</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363171</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>7.105427357601002e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31928.28153540098</v>
+        <v>31928.28153540097</v>
       </c>
       <c r="C4" t="n">
+        <v>89134.1790931202</v>
+      </c>
+      <c r="D4" t="n">
         <v>89134.17909312018</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89134.17909312024</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26430,16 +26430,16 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768921</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768936</v>
       </c>
       <c r="I4" t="n">
-        <v>17938.00358486238</v>
+        <v>17938.00358486243</v>
       </c>
       <c r="J4" t="n">
-        <v>17938.00358486236</v>
+        <v>17938.00358486243</v>
       </c>
       <c r="K4" t="n">
         <v>17938.00358486237</v>
@@ -26451,13 +26451,13 @@
         <v>17938.00358486237</v>
       </c>
       <c r="N4" t="n">
-        <v>17938.00358486242</v>
+        <v>17938.0035848624</v>
       </c>
       <c r="O4" t="n">
-        <v>17938.00358486235</v>
+        <v>17938.00358486237</v>
       </c>
       <c r="P4" t="n">
-        <v>17938.00358486236</v>
+        <v>17938.00358486237</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1207851.684898442</v>
+        <v>-1208315.981690467</v>
       </c>
       <c r="C6" t="n">
-        <v>-359454.7727734054</v>
+        <v>-359454.7727734053</v>
       </c>
       <c r="D6" t="n">
-        <v>-156016.0311612994</v>
+        <v>-156016.0311612993</v>
       </c>
       <c r="E6" t="n">
-        <v>-396124.8059685311</v>
+        <v>-396159.5438939668</v>
       </c>
       <c r="F6" t="n">
-        <v>-70712.3441611757</v>
+        <v>-70747.08208661138</v>
       </c>
       <c r="G6" t="n">
-        <v>-70712.34416117574</v>
+        <v>-70747.08208661141</v>
       </c>
       <c r="H6" t="n">
-        <v>-70712.34416117572</v>
+        <v>-70747.08208661145</v>
       </c>
       <c r="I6" t="n">
-        <v>-99477.74893919534</v>
+        <v>-99477.7489391954</v>
       </c>
       <c r="J6" t="n">
-        <v>-247655.2087555461</v>
+        <v>-247655.2087555462</v>
       </c>
       <c r="K6" t="n">
         <v>-129160.1236516181</v>
       </c>
       <c r="L6" t="n">
-        <v>-80050.0309455636</v>
+        <v>-80050.03094556357</v>
       </c>
       <c r="M6" t="n">
-        <v>-165105.0588810755</v>
+        <v>-165105.0588810754</v>
       </c>
       <c r="N6" t="n">
-        <v>-99477.74893919539</v>
+        <v>-99477.74893919533</v>
       </c>
       <c r="O6" t="n">
-        <v>-80050.03094556356</v>
+        <v>-80050.03094556363</v>
       </c>
       <c r="P6" t="n">
-        <v>-80050.03094556363</v>
+        <v>-80050.03094556357</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203965</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="O2" t="n">
-        <v>24.28464749203967</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26926,13 +26926,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>8.881784197001252e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41.39144493658154</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27540,19 +27540,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>40.07060014899449</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>311.9153108144945</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>239.8338247233347</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>74.48763083027329</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>120.3824058916619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>211.6739935392779</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>49.93868622421815</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>69.43309430580466</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,10 +28068,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>83.80296860046261</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29050,10 +29050,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="26">
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30232,64 +30232,64 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>1.364242052659392e-12</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203965</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.3312853305619</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>508.8976500257891</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,28 +32315,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N18" t="n">
-        <v>336.3457189021236</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,16 +32555,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>245.8118639189582</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,19 +32789,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>407.217739120397</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,16 +32810,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33260,13 +33260,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>382.686909664426</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33500,25 +33500,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>638.0665277849414</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33731,28 +33731,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,13 +33980,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>558.375963895806</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,7 +33995,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34378,7 +34378,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34445,13 +34445,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>360.3952288121461</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34787,19 +34787,19 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>584.5244463807092</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>280.0487856294274</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.34951124454038</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096333</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>366.7636161037707</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N18" t="n">
-        <v>205.0040068187903</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>103.6778299969399</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,16 +36440,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>265.0837051983787</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36522,13 +36522,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N25" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P25" t="n">
         <v>319.9164207986647</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36908,13 +36908,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>244.1325298845518</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37148,25 +37148,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>506.7248157016081</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,13 +37628,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>416.2419299737876</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37716,10 +37716,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37953,10 +37953,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38093,13 +38093,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>222.5537898377871</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
